--- a/files/Envizi_SetupConfig_SG_Report.xlsx
+++ b/files/Envizi_SetupConfig_SG_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gandhi/GandhiMain/700-Apps/envizi-social-governance-blog/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gandhi/GandhiMain/001-Tasks/20240621-forrest-conservation-account-style/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8519D95F-10F9-3A4B-974E-4E179CFE4D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0EC790-D9CA-254E-B499-5F5DADFAA4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="5080" windowWidth="32400" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="5060" windowWidth="29920" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
   <si>
     <t>ORGANIZATION</t>
   </si>
@@ -105,13 +105,55 @@
   </si>
   <si>
     <t>G50-SG-Emp Hires</t>
+  </si>
+  <si>
+    <t>G50-Forest-Conservation</t>
+  </si>
+  <si>
+    <t>G50-FC-Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand </t>
+  </si>
+  <si>
+    <t>G50-FC-USA</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>G50-FC-Russia</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>G50-FC-Malaysia</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>G50-FC-India</t>
+  </si>
+  <si>
+    <t>G50-FC-France</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>G50-FC-Australia</t>
+  </si>
+  <si>
+    <t>Australia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +166,13 @@
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -171,6 +220,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -607,11 +659,145 @@
         <v>72.877655000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E4" s="1"/>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E5" s="1"/>
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
